--- a/datasets/Dataset Gabungan.xlsx
+++ b/datasets/Dataset Gabungan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76483C2-D2F9-4E8F-8F87-6C013858FEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10DD5BC-D82F-4346-A0CD-F75A83CC86F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B32A2D48-1688-4EFE-826C-3ECB12417556}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5842" uniqueCount="2781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5847" uniqueCount="2782">
   <si>
     <t>ID</t>
   </si>
@@ -8368,6 +8368,9 @@
   </si>
   <si>
     <t>information systems, rental, track, estimation, transportation cost</t>
+  </si>
+  <si>
+    <t>Seven types of activated carbon electrode (ACM) have been produced from the banana peel waste for supercapacitor application. The difference type of the electrode was synthesized by the various conditions of carbonization and activation. The production of the ACM was begun by the milling process and molded by a solution casting technique. The next step was followed by drying, carbonization and activation process. Physical properties of the ACM were studied by the N2 gas absorption-desorption method to characterize the specific surface area of the sample. On the other side, the electrochemical properties such as specific capacitance (Csp), specific energy (E) and specific power (P) were resulted by calculating the current (I) and voltage (V) data from the cyclic voltammetry testing. Based on the data obtained the surface area of the ACM has a significant relationship with the electrochemical properties. The specific surface area (SBET), Csp, E and P were found the maximum value as high as 581m2 / g, 68 F/g, 0.75 Wh/kg and 31?W/kg, respectively. Further more, this paper were also analyzed the relationship between electrochemical properties of supercapacitor with the degree of crystallization of the ACM.</t>
   </si>
 </sst>
 </file>
@@ -8720,10 +8723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B74ACA-8930-4C28-812D-0AA768DE4D37}">
-  <dimension ref="A1:I1112"/>
+  <dimension ref="A1:I1113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A896" workbookViewId="0">
-      <selection activeCell="J910" sqref="J910"/>
+    <sheetView tabSelected="1" topLeftCell="A904" workbookViewId="0">
+      <selection activeCell="G917" sqref="G917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35213,19 +35216,16 @@
         <v>2137</v>
       </c>
       <c r="C914" t="s">
-        <v>430</v>
-      </c>
-      <c r="D914" t="s">
-        <v>431</v>
+        <v>2781</v>
       </c>
       <c r="E914" t="s">
-        <v>432</v>
-      </c>
-      <c r="F914">
-        <v>2019</v>
+        <v>17</v>
+      </c>
+      <c r="F914" t="s">
+        <v>17</v>
       </c>
       <c r="G914" t="s">
-        <v>433</v>
+        <v>17</v>
       </c>
       <c r="H914">
         <v>2</v>
@@ -35242,19 +35242,19 @@
         <v>2137</v>
       </c>
       <c r="C915" t="s">
-        <v>2038</v>
+        <v>430</v>
       </c>
       <c r="D915" t="s">
-        <v>2039</v>
+        <v>431</v>
       </c>
       <c r="E915" t="s">
-        <v>2040</v>
+        <v>432</v>
       </c>
       <c r="F915">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G915" t="s">
-        <v>2041</v>
+        <v>433</v>
       </c>
       <c r="H915">
         <v>2</v>
@@ -35271,19 +35271,19 @@
         <v>2137</v>
       </c>
       <c r="C916" t="s">
-        <v>2027</v>
+        <v>2038</v>
       </c>
       <c r="D916" t="s">
-        <v>2028</v>
+        <v>2039</v>
       </c>
       <c r="E916" t="s">
-        <v>2029</v>
+        <v>2040</v>
       </c>
       <c r="F916">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G916" t="s">
-        <v>2030</v>
+        <v>2041</v>
       </c>
       <c r="H916">
         <v>2</v>
@@ -35300,19 +35300,19 @@
         <v>2137</v>
       </c>
       <c r="C917" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="D917" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="E917" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="F917">
         <v>2022</v>
       </c>
       <c r="G917" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="H917">
         <v>2</v>
@@ -35329,19 +35329,19 @@
         <v>2137</v>
       </c>
       <c r="C918" t="s">
-        <v>870</v>
+        <v>2031</v>
       </c>
       <c r="D918" t="s">
-        <v>871</v>
+        <v>2032</v>
       </c>
       <c r="E918" t="s">
-        <v>872</v>
+        <v>2033</v>
       </c>
       <c r="F918">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G918" t="s">
-        <v>873</v>
+        <v>2034</v>
       </c>
       <c r="H918">
         <v>2</v>
@@ -35358,19 +35358,19 @@
         <v>2137</v>
       </c>
       <c r="C919" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="D919" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="E919" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="F919">
         <v>2021</v>
       </c>
       <c r="G919" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="H919">
         <v>2</v>
@@ -35387,19 +35387,19 @@
         <v>2137</v>
       </c>
       <c r="C920" t="s">
-        <v>1029</v>
+        <v>854</v>
       </c>
       <c r="D920" t="s">
-        <v>1030</v>
+        <v>855</v>
       </c>
       <c r="E920" t="s">
-        <v>17</v>
-      </c>
-      <c r="F920" t="s">
-        <v>17</v>
+        <v>856</v>
+      </c>
+      <c r="F920">
+        <v>2021</v>
       </c>
       <c r="G920" t="s">
-        <v>17</v>
+        <v>857</v>
       </c>
       <c r="H920">
         <v>2</v>
@@ -35416,10 +35416,10 @@
         <v>2137</v>
       </c>
       <c r="C921" t="s">
-        <v>2156</v>
+        <v>1029</v>
       </c>
       <c r="D921" t="s">
-        <v>2718</v>
+        <v>1030</v>
       </c>
       <c r="E921" t="s">
         <v>17</v>
@@ -35445,19 +35445,19 @@
         <v>2137</v>
       </c>
       <c r="C922" t="s">
-        <v>915</v>
+        <v>2156</v>
       </c>
       <c r="D922" t="s">
-        <v>916</v>
+        <v>2718</v>
       </c>
       <c r="E922" t="s">
-        <v>917</v>
-      </c>
-      <c r="F922">
-        <v>2020</v>
+        <v>17</v>
+      </c>
+      <c r="F922" t="s">
+        <v>17</v>
       </c>
       <c r="G922" t="s">
-        <v>2152</v>
+        <v>17</v>
       </c>
       <c r="H922">
         <v>2</v>
@@ -35474,19 +35474,19 @@
         <v>2137</v>
       </c>
       <c r="C923" t="s">
-        <v>2138</v>
+        <v>915</v>
       </c>
       <c r="D923" t="s">
-        <v>2139</v>
+        <v>916</v>
       </c>
       <c r="E923" t="s">
-        <v>2140</v>
+        <v>917</v>
       </c>
       <c r="F923">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G923" t="s">
-        <v>2141</v>
+        <v>2152</v>
       </c>
       <c r="H923">
         <v>2</v>
@@ -35503,19 +35503,19 @@
         <v>2137</v>
       </c>
       <c r="C924" t="s">
-        <v>930</v>
+        <v>2138</v>
       </c>
       <c r="D924" t="s">
-        <v>931</v>
+        <v>2139</v>
       </c>
       <c r="E924" t="s">
-        <v>932</v>
+        <v>2140</v>
       </c>
       <c r="F924">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="G924" t="s">
-        <v>933</v>
+        <v>2141</v>
       </c>
       <c r="H924">
         <v>2</v>
@@ -35532,19 +35532,19 @@
         <v>2137</v>
       </c>
       <c r="C925" t="s">
-        <v>2719</v>
+        <v>930</v>
       </c>
       <c r="D925" t="s">
-        <v>2150</v>
+        <v>931</v>
       </c>
       <c r="E925" t="s">
-        <v>2096</v>
+        <v>932</v>
       </c>
       <c r="F925">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G925" t="s">
-        <v>2151</v>
+        <v>933</v>
       </c>
       <c r="H925">
         <v>2</v>
@@ -35561,19 +35561,19 @@
         <v>2137</v>
       </c>
       <c r="C926" t="s">
-        <v>967</v>
+        <v>2719</v>
       </c>
       <c r="D926" t="s">
-        <v>968</v>
+        <v>2150</v>
       </c>
       <c r="E926" t="s">
-        <v>969</v>
+        <v>2096</v>
       </c>
       <c r="F926">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G926" t="s">
-        <v>970</v>
+        <v>2151</v>
       </c>
       <c r="H926">
         <v>2</v>
@@ -35590,19 +35590,19 @@
         <v>2137</v>
       </c>
       <c r="C927" t="s">
-        <v>2160</v>
+        <v>967</v>
       </c>
       <c r="D927" t="s">
-        <v>2720</v>
+        <v>968</v>
       </c>
       <c r="E927" t="s">
-        <v>17</v>
-      </c>
-      <c r="F927" t="s">
-        <v>17</v>
+        <v>969</v>
+      </c>
+      <c r="F927">
+        <v>2019</v>
       </c>
       <c r="G927" t="s">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="H927">
         <v>2</v>
@@ -35619,19 +35619,19 @@
         <v>2137</v>
       </c>
       <c r="C928" t="s">
-        <v>383</v>
+        <v>2160</v>
       </c>
       <c r="D928" t="s">
-        <v>384</v>
+        <v>2720</v>
       </c>
       <c r="E928" t="s">
-        <v>385</v>
-      </c>
-      <c r="F928">
-        <v>2020</v>
+        <v>17</v>
+      </c>
+      <c r="F928" t="s">
+        <v>17</v>
       </c>
       <c r="G928" t="s">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="H928">
         <v>2</v>
@@ -35648,19 +35648,19 @@
         <v>2137</v>
       </c>
       <c r="C929" t="s">
-        <v>2161</v>
+        <v>383</v>
       </c>
       <c r="D929" t="s">
-        <v>2721</v>
+        <v>384</v>
       </c>
       <c r="E929" t="s">
-        <v>17</v>
-      </c>
-      <c r="F929" t="s">
-        <v>17</v>
+        <v>385</v>
+      </c>
+      <c r="F929">
+        <v>2020</v>
       </c>
       <c r="G929" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="H929">
         <v>2</v>
@@ -35677,16 +35677,16 @@
         <v>2137</v>
       </c>
       <c r="C930" t="s">
-        <v>974</v>
+        <v>2161</v>
       </c>
       <c r="D930" t="s">
-        <v>975</v>
+        <v>2721</v>
       </c>
       <c r="E930" t="s">
-        <v>976</v>
-      </c>
-      <c r="F930">
-        <v>2018</v>
+        <v>17</v>
+      </c>
+      <c r="F930" t="s">
+        <v>17</v>
       </c>
       <c r="G930" t="s">
         <v>17</v>
@@ -35706,19 +35706,19 @@
         <v>2137</v>
       </c>
       <c r="C931" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="D931" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="E931" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="F931">
         <v>2018</v>
       </c>
       <c r="G931" t="s">
-        <v>992</v>
+        <v>17</v>
       </c>
       <c r="H931">
         <v>2</v>
@@ -35735,19 +35735,19 @@
         <v>2137</v>
       </c>
       <c r="C932" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="D932" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="E932" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="F932">
         <v>2018</v>
       </c>
       <c r="G932" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="H932">
         <v>2</v>
@@ -35758,31 +35758,31 @@
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B933" t="s">
-        <v>2169</v>
+        <v>2137</v>
       </c>
       <c r="C933" t="s">
-        <v>2196</v>
+        <v>977</v>
       </c>
       <c r="D933" t="s">
-        <v>2722</v>
+        <v>978</v>
       </c>
       <c r="E933" t="s">
-        <v>17</v>
-      </c>
-      <c r="F933" t="s">
-        <v>17</v>
+        <v>979</v>
+      </c>
+      <c r="F933">
+        <v>2018</v>
       </c>
       <c r="G933" t="s">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.25">
@@ -35793,10 +35793,10 @@
         <v>2169</v>
       </c>
       <c r="C934" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="D934" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="E934" t="s">
         <v>17</v>
@@ -35822,19 +35822,19 @@
         <v>2169</v>
       </c>
       <c r="C935" t="s">
-        <v>14</v>
+        <v>2194</v>
       </c>
       <c r="D935" t="s">
-        <v>15</v>
+        <v>2723</v>
       </c>
       <c r="E935" t="s">
-        <v>16</v>
-      </c>
-      <c r="F935">
-        <v>2022</v>
+        <v>17</v>
+      </c>
+      <c r="F935" t="s">
+        <v>17</v>
       </c>
       <c r="G935" t="s">
-        <v>2170</v>
+        <v>17</v>
       </c>
       <c r="H935">
         <v>0</v>
@@ -35851,19 +35851,19 @@
         <v>2169</v>
       </c>
       <c r="C936" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D936" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E936" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F936">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G936" t="s">
-        <v>95</v>
+        <v>2170</v>
       </c>
       <c r="H936">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>2169</v>
       </c>
       <c r="C937" t="s">
-        <v>2185</v>
+        <v>92</v>
       </c>
       <c r="D937" t="s">
-        <v>2724</v>
+        <v>93</v>
       </c>
       <c r="E937" t="s">
-        <v>17</v>
-      </c>
-      <c r="F937" t="s">
-        <v>17</v>
+        <v>94</v>
+      </c>
+      <c r="F937">
+        <v>2020</v>
       </c>
       <c r="G937" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="H937">
         <v>0</v>
@@ -35909,10 +35909,10 @@
         <v>2169</v>
       </c>
       <c r="C938" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="D938" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="E938" t="s">
         <v>17</v>
@@ -35938,10 +35938,10 @@
         <v>2169</v>
       </c>
       <c r="C939" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="D939" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="E939" t="s">
         <v>17</v>
@@ -35967,10 +35967,10 @@
         <v>2169</v>
       </c>
       <c r="C940" t="s">
-        <v>2197</v>
+        <v>2189</v>
       </c>
       <c r="D940" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="E940" t="s">
         <v>17</v>
@@ -35996,10 +35996,10 @@
         <v>2169</v>
       </c>
       <c r="C941" t="s">
-        <v>2190</v>
+        <v>2197</v>
       </c>
       <c r="D941" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E941" t="s">
         <v>17</v>
@@ -36025,16 +36025,16 @@
         <v>2169</v>
       </c>
       <c r="C942" t="s">
-        <v>2201</v>
+        <v>2190</v>
       </c>
       <c r="D942" t="s">
-        <v>2202</v>
+        <v>2728</v>
       </c>
       <c r="E942" t="s">
-        <v>2203</v>
-      </c>
-      <c r="F942">
-        <v>2022</v>
+        <v>17</v>
+      </c>
+      <c r="F942" t="s">
+        <v>17</v>
       </c>
       <c r="G942" t="s">
         <v>17</v>
@@ -36054,19 +36054,19 @@
         <v>2169</v>
       </c>
       <c r="C943" t="s">
-        <v>2175</v>
+        <v>2201</v>
       </c>
       <c r="D943" t="s">
-        <v>2176</v>
+        <v>2202</v>
       </c>
       <c r="E943" t="s">
-        <v>2177</v>
+        <v>2203</v>
       </c>
       <c r="F943">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G943" t="s">
-        <v>2178</v>
+        <v>17</v>
       </c>
       <c r="H943">
         <v>0</v>
@@ -36083,19 +36083,19 @@
         <v>2169</v>
       </c>
       <c r="C944" t="s">
-        <v>2042</v>
+        <v>2175</v>
       </c>
       <c r="D944" t="s">
-        <v>2043</v>
+        <v>2176</v>
       </c>
       <c r="E944" t="s">
-        <v>2044</v>
+        <v>2177</v>
       </c>
       <c r="F944">
         <v>2019</v>
       </c>
       <c r="G944" t="s">
-        <v>2045</v>
+        <v>2178</v>
       </c>
       <c r="H944">
         <v>0</v>
@@ -36112,19 +36112,19 @@
         <v>2169</v>
       </c>
       <c r="C945" t="s">
-        <v>2198</v>
+        <v>2042</v>
       </c>
       <c r="D945" t="s">
-        <v>2199</v>
+        <v>2043</v>
       </c>
       <c r="E945" t="s">
-        <v>2200</v>
+        <v>2044</v>
       </c>
       <c r="F945">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G945" t="s">
-        <v>17</v>
+        <v>2045</v>
       </c>
       <c r="H945">
         <v>0</v>
@@ -36141,16 +36141,16 @@
         <v>2169</v>
       </c>
       <c r="C946" t="s">
-        <v>2184</v>
+        <v>2198</v>
       </c>
       <c r="D946" t="s">
-        <v>2729</v>
+        <v>2199</v>
       </c>
       <c r="E946" t="s">
-        <v>17</v>
-      </c>
-      <c r="F946" t="s">
-        <v>17</v>
+        <v>2200</v>
+      </c>
+      <c r="F946">
+        <v>2022</v>
       </c>
       <c r="G946" t="s">
         <v>17</v>
@@ -36170,10 +36170,10 @@
         <v>2169</v>
       </c>
       <c r="C947" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="D947" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="E947" t="s">
         <v>17</v>
@@ -36199,10 +36199,10 @@
         <v>2169</v>
       </c>
       <c r="C948" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D948" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="E948" t="s">
         <v>17</v>
@@ -36228,10 +36228,10 @@
         <v>2169</v>
       </c>
       <c r="C949" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="D949" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="E949" t="s">
         <v>17</v>
@@ -36257,10 +36257,10 @@
         <v>2169</v>
       </c>
       <c r="C950" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D950" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="E950" t="s">
         <v>17</v>
@@ -36286,19 +36286,19 @@
         <v>2169</v>
       </c>
       <c r="C951" t="s">
-        <v>2171</v>
+        <v>2193</v>
       </c>
       <c r="D951" t="s">
-        <v>2172</v>
+        <v>2733</v>
       </c>
       <c r="E951" t="s">
-        <v>2173</v>
-      </c>
-      <c r="F951">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="F951" t="s">
+        <v>17</v>
       </c>
       <c r="G951" t="s">
-        <v>2174</v>
+        <v>17</v>
       </c>
       <c r="H951">
         <v>0</v>
@@ -36315,19 +36315,19 @@
         <v>2169</v>
       </c>
       <c r="C952" t="s">
-        <v>2038</v>
+        <v>2171</v>
       </c>
       <c r="D952" t="s">
-        <v>2039</v>
+        <v>2172</v>
       </c>
       <c r="E952" t="s">
-        <v>2040</v>
+        <v>2173</v>
       </c>
       <c r="F952">
         <v>2021</v>
       </c>
       <c r="G952" t="s">
-        <v>2041</v>
+        <v>2174</v>
       </c>
       <c r="H952">
         <v>0</v>
@@ -36344,19 +36344,19 @@
         <v>2169</v>
       </c>
       <c r="C953" t="s">
-        <v>2188</v>
+        <v>2038</v>
       </c>
       <c r="D953" t="s">
-        <v>2734</v>
+        <v>2039</v>
       </c>
       <c r="E953" t="s">
-        <v>17</v>
-      </c>
-      <c r="F953" t="s">
-        <v>17</v>
+        <v>2040</v>
+      </c>
+      <c r="F953">
+        <v>2021</v>
       </c>
       <c r="G953" t="s">
-        <v>17</v>
+        <v>2041</v>
       </c>
       <c r="H953">
         <v>0</v>
@@ -36373,19 +36373,19 @@
         <v>2169</v>
       </c>
       <c r="C954" t="s">
-        <v>2179</v>
+        <v>2188</v>
       </c>
       <c r="D954" t="s">
-        <v>2180</v>
+        <v>2734</v>
       </c>
       <c r="E954" t="s">
-        <v>2181</v>
-      </c>
-      <c r="F954">
-        <v>2018</v>
+        <v>17</v>
+      </c>
+      <c r="F954" t="s">
+        <v>17</v>
       </c>
       <c r="G954" t="s">
-        <v>2182</v>
+        <v>17</v>
       </c>
       <c r="H954">
         <v>0</v>
@@ -36402,19 +36402,19 @@
         <v>2169</v>
       </c>
       <c r="C955" t="s">
-        <v>2195</v>
+        <v>2179</v>
       </c>
       <c r="D955" t="s">
-        <v>2735</v>
+        <v>2180</v>
       </c>
       <c r="E955" t="s">
-        <v>17</v>
-      </c>
-      <c r="F955" t="s">
-        <v>17</v>
+        <v>2181</v>
+      </c>
+      <c r="F955">
+        <v>2018</v>
       </c>
       <c r="G955" t="s">
-        <v>17</v>
+        <v>2182</v>
       </c>
       <c r="H955">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>2169</v>
       </c>
       <c r="C956" t="s">
-        <v>2183</v>
+        <v>2195</v>
       </c>
       <c r="D956" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="E956" t="s">
         <v>17</v>
@@ -36454,16 +36454,16 @@
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B957" t="s">
-        <v>2204</v>
+        <v>2169</v>
       </c>
       <c r="C957" t="s">
-        <v>2212</v>
+        <v>2183</v>
       </c>
       <c r="D957" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="E957" t="s">
         <v>17</v>
@@ -36489,10 +36489,10 @@
         <v>2204</v>
       </c>
       <c r="C958" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="D958" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="E958" t="s">
         <v>17</v>
@@ -36518,10 +36518,10 @@
         <v>2204</v>
       </c>
       <c r="C959" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D959" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="E959" t="s">
         <v>17</v>
@@ -36547,10 +36547,10 @@
         <v>2204</v>
       </c>
       <c r="C960" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="D960" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="E960" t="s">
         <v>17</v>
@@ -36576,10 +36576,10 @@
         <v>2204</v>
       </c>
       <c r="C961" t="s">
-        <v>2219</v>
+        <v>2207</v>
       </c>
       <c r="D961" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="E961" t="s">
         <v>17</v>
@@ -36605,10 +36605,10 @@
         <v>2204</v>
       </c>
       <c r="C962" t="s">
-        <v>2208</v>
+        <v>2219</v>
       </c>
       <c r="D962" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="E962" t="s">
         <v>17</v>
@@ -36634,10 +36634,10 @@
         <v>2204</v>
       </c>
       <c r="C963" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="D963" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="E963" t="s">
         <v>17</v>
@@ -36663,19 +36663,19 @@
         <v>2204</v>
       </c>
       <c r="C964" t="s">
-        <v>1235</v>
+        <v>2215</v>
       </c>
       <c r="D964" t="s">
-        <v>1236</v>
+        <v>2743</v>
       </c>
       <c r="E964" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F964">
-        <v>2019</v>
+        <v>17</v>
+      </c>
+      <c r="F964" t="s">
+        <v>17</v>
       </c>
       <c r="G964" t="s">
-        <v>1238</v>
+        <v>17</v>
       </c>
       <c r="H964">
         <v>0</v>
@@ -36692,19 +36692,19 @@
         <v>2204</v>
       </c>
       <c r="C965" t="s">
-        <v>2220</v>
+        <v>1235</v>
       </c>
       <c r="D965" t="s">
-        <v>2221</v>
+        <v>1236</v>
       </c>
       <c r="E965" t="s">
-        <v>2222</v>
+        <v>1237</v>
       </c>
       <c r="F965">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G965" t="s">
-        <v>17</v>
+        <v>1238</v>
       </c>
       <c r="H965">
         <v>0</v>
@@ -36721,16 +36721,16 @@
         <v>2204</v>
       </c>
       <c r="C966" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="D966" t="s">
-        <v>2744</v>
+        <v>2221</v>
       </c>
       <c r="E966" t="s">
-        <v>17</v>
-      </c>
-      <c r="F966" t="s">
-        <v>17</v>
+        <v>2222</v>
+      </c>
+      <c r="F966">
+        <v>2022</v>
       </c>
       <c r="G966" t="s">
         <v>17</v>
@@ -36750,10 +36750,10 @@
         <v>2204</v>
       </c>
       <c r="C967" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="D967" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="E967" t="s">
         <v>17</v>
@@ -36779,10 +36779,10 @@
         <v>2204</v>
       </c>
       <c r="C968" t="s">
-        <v>2209</v>
+        <v>2217</v>
       </c>
       <c r="D968" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="E968" t="s">
         <v>17</v>
@@ -36808,10 +36808,10 @@
         <v>2204</v>
       </c>
       <c r="C969" t="s">
-        <v>2218</v>
+        <v>2209</v>
       </c>
       <c r="D969" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="E969" t="s">
         <v>17</v>
@@ -36837,10 +36837,10 @@
         <v>2204</v>
       </c>
       <c r="C970" t="s">
-        <v>2206</v>
+        <v>2218</v>
       </c>
       <c r="D970" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="E970" t="s">
         <v>17</v>
@@ -36866,16 +36866,16 @@
         <v>2204</v>
       </c>
       <c r="C971" t="s">
-        <v>2223</v>
+        <v>2206</v>
       </c>
       <c r="D971" t="s">
-        <v>2224</v>
+        <v>2748</v>
       </c>
       <c r="E971" t="s">
-        <v>2225</v>
-      </c>
-      <c r="F971">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="F971" t="s">
+        <v>17</v>
       </c>
       <c r="G971" t="s">
         <v>17</v>
@@ -36895,16 +36895,16 @@
         <v>2204</v>
       </c>
       <c r="C972" t="s">
-        <v>2205</v>
+        <v>2223</v>
       </c>
       <c r="D972" t="s">
-        <v>2749</v>
+        <v>2224</v>
       </c>
       <c r="E972" t="s">
-        <v>17</v>
-      </c>
-      <c r="F972" t="s">
-        <v>17</v>
+        <v>2225</v>
+      </c>
+      <c r="F972">
+        <v>2021</v>
       </c>
       <c r="G972" t="s">
         <v>17</v>
@@ -36924,10 +36924,10 @@
         <v>2204</v>
       </c>
       <c r="C973" t="s">
-        <v>2216</v>
+        <v>2205</v>
       </c>
       <c r="D973" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="E973" t="s">
         <v>17</v>
@@ -36953,10 +36953,10 @@
         <v>2204</v>
       </c>
       <c r="C974" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="D974" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="E974" t="s">
         <v>17</v>
@@ -36982,16 +36982,16 @@
         <v>2204</v>
       </c>
       <c r="C975" t="s">
-        <v>2551</v>
+        <v>2214</v>
       </c>
       <c r="D975" t="s">
-        <v>1218</v>
+        <v>2751</v>
       </c>
       <c r="E975" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F975">
-        <v>2020</v>
+        <v>17</v>
+      </c>
+      <c r="F975" t="s">
+        <v>17</v>
       </c>
       <c r="G975" t="s">
         <v>17</v>
@@ -37011,19 +37011,19 @@
         <v>2204</v>
       </c>
       <c r="C976" t="s">
-        <v>1239</v>
+        <v>2551</v>
       </c>
       <c r="D976" t="s">
-        <v>1240</v>
+        <v>1218</v>
       </c>
       <c r="E976" t="s">
-        <v>1241</v>
+        <v>1219</v>
       </c>
       <c r="F976">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G976" t="s">
-        <v>1242</v>
+        <v>17</v>
       </c>
       <c r="H976">
         <v>0</v>
@@ -37034,31 +37034,31 @@
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B977" t="s">
-        <v>2226</v>
+        <v>2204</v>
       </c>
       <c r="C977" t="s">
-        <v>2283</v>
+        <v>1239</v>
       </c>
       <c r="D977" t="s">
-        <v>2284</v>
+        <v>1240</v>
       </c>
       <c r="E977" t="s">
-        <v>2285</v>
+        <v>1241</v>
       </c>
       <c r="F977">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G977" t="s">
-        <v>2286</v>
+        <v>1242</v>
       </c>
       <c r="H977">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I977">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.25">
@@ -37069,19 +37069,19 @@
         <v>2226</v>
       </c>
       <c r="C978" t="s">
-        <v>2307</v>
+        <v>2283</v>
       </c>
       <c r="D978" t="s">
-        <v>2308</v>
+        <v>2284</v>
       </c>
       <c r="E978" t="s">
-        <v>2309</v>
+        <v>2285</v>
       </c>
       <c r="F978">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G978" t="s">
-        <v>2310</v>
+        <v>2286</v>
       </c>
       <c r="H978">
         <v>3</v>
@@ -37098,19 +37098,19 @@
         <v>2226</v>
       </c>
       <c r="C979" t="s">
-        <v>707</v>
+        <v>2307</v>
       </c>
       <c r="D979" t="s">
-        <v>708</v>
+        <v>2308</v>
       </c>
       <c r="E979" t="s">
-        <v>709</v>
+        <v>2309</v>
       </c>
       <c r="F979">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G979" t="s">
-        <v>710</v>
+        <v>2310</v>
       </c>
       <c r="H979">
         <v>3</v>
@@ -37127,19 +37127,19 @@
         <v>2226</v>
       </c>
       <c r="C980" t="s">
-        <v>1907</v>
+        <v>707</v>
       </c>
       <c r="D980" t="s">
-        <v>1908</v>
+        <v>708</v>
       </c>
       <c r="E980" t="s">
-        <v>1909</v>
+        <v>709</v>
       </c>
       <c r="F980">
         <v>2019</v>
       </c>
       <c r="G980" t="s">
-        <v>1910</v>
+        <v>710</v>
       </c>
       <c r="H980">
         <v>3</v>
@@ -37156,19 +37156,19 @@
         <v>2226</v>
       </c>
       <c r="C981" t="s">
-        <v>205</v>
+        <v>1907</v>
       </c>
       <c r="D981" t="s">
-        <v>206</v>
+        <v>1908</v>
       </c>
       <c r="E981" t="s">
-        <v>207</v>
+        <v>1909</v>
       </c>
       <c r="F981">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G981" t="s">
-        <v>208</v>
+        <v>1910</v>
       </c>
       <c r="H981">
         <v>3</v>
@@ -37185,19 +37185,19 @@
         <v>2226</v>
       </c>
       <c r="C982" t="s">
-        <v>2488</v>
+        <v>205</v>
       </c>
       <c r="D982" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E982" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F982">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G982" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H982">
         <v>3</v>
@@ -37214,19 +37214,19 @@
         <v>2226</v>
       </c>
       <c r="C983" t="s">
-        <v>664</v>
+        <v>2488</v>
       </c>
       <c r="D983" t="s">
-        <v>665</v>
+        <v>199</v>
       </c>
       <c r="E983" t="s">
-        <v>666</v>
+        <v>200</v>
       </c>
       <c r="F983">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G983" t="s">
-        <v>667</v>
+        <v>201</v>
       </c>
       <c r="H983">
         <v>3</v>
@@ -37243,19 +37243,19 @@
         <v>2226</v>
       </c>
       <c r="C984" t="s">
-        <v>768</v>
+        <v>664</v>
       </c>
       <c r="D984" t="s">
-        <v>769</v>
+        <v>665</v>
       </c>
       <c r="E984" t="s">
-        <v>770</v>
+        <v>666</v>
       </c>
       <c r="F984">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G984" t="s">
-        <v>771</v>
+        <v>667</v>
       </c>
       <c r="H984">
         <v>3</v>
@@ -37272,19 +37272,19 @@
         <v>2226</v>
       </c>
       <c r="C985" t="s">
-        <v>2232</v>
+        <v>768</v>
       </c>
       <c r="D985" t="s">
-        <v>2233</v>
+        <v>769</v>
       </c>
       <c r="E985" t="s">
-        <v>2234</v>
+        <v>770</v>
       </c>
       <c r="F985">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G985" t="s">
-        <v>2235</v>
+        <v>771</v>
       </c>
       <c r="H985">
         <v>3</v>
@@ -37301,19 +37301,19 @@
         <v>2226</v>
       </c>
       <c r="C986" t="s">
-        <v>2252</v>
+        <v>2232</v>
       </c>
       <c r="D986" t="s">
-        <v>2253</v>
+        <v>2233</v>
       </c>
       <c r="E986" t="s">
-        <v>2254</v>
+        <v>2234</v>
       </c>
       <c r="F986">
         <v>2022</v>
       </c>
       <c r="G986" t="s">
-        <v>2255</v>
+        <v>2235</v>
       </c>
       <c r="H986">
         <v>3</v>
@@ -37330,19 +37330,19 @@
         <v>2226</v>
       </c>
       <c r="C987" t="s">
-        <v>2267</v>
+        <v>2252</v>
       </c>
       <c r="D987" t="s">
-        <v>2268</v>
+        <v>2253</v>
       </c>
       <c r="E987" t="s">
-        <v>2269</v>
+        <v>2254</v>
       </c>
       <c r="F987">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G987" t="s">
-        <v>2270</v>
+        <v>2255</v>
       </c>
       <c r="H987">
         <v>3</v>
@@ -37359,19 +37359,19 @@
         <v>2226</v>
       </c>
       <c r="C988" t="s">
-        <v>2352</v>
+        <v>2267</v>
       </c>
       <c r="D988" t="s">
-        <v>2353</v>
+        <v>2268</v>
       </c>
       <c r="E988" t="s">
-        <v>2354</v>
+        <v>2269</v>
       </c>
       <c r="F988">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G988" t="s">
-        <v>17</v>
+        <v>2270</v>
       </c>
       <c r="H988">
         <v>3</v>
@@ -37388,19 +37388,19 @@
         <v>2226</v>
       </c>
       <c r="C989" t="s">
-        <v>2291</v>
+        <v>2352</v>
       </c>
       <c r="D989" t="s">
-        <v>2292</v>
+        <v>2353</v>
       </c>
       <c r="E989" t="s">
-        <v>2293</v>
+        <v>2354</v>
       </c>
       <c r="F989">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G989" t="s">
-        <v>2294</v>
+        <v>17</v>
       </c>
       <c r="H989">
         <v>3</v>
@@ -37417,19 +37417,19 @@
         <v>2226</v>
       </c>
       <c r="C990" t="s">
-        <v>1915</v>
+        <v>2291</v>
       </c>
       <c r="D990" t="s">
-        <v>1916</v>
+        <v>2292</v>
       </c>
       <c r="E990" t="s">
-        <v>1917</v>
+        <v>2293</v>
       </c>
       <c r="F990">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G990" t="s">
-        <v>1918</v>
+        <v>2294</v>
       </c>
       <c r="H990">
         <v>3</v>
@@ -37446,19 +37446,19 @@
         <v>2226</v>
       </c>
       <c r="C991" t="s">
-        <v>2344</v>
+        <v>1915</v>
       </c>
       <c r="D991" t="s">
-        <v>2345</v>
+        <v>1916</v>
       </c>
       <c r="E991" t="s">
-        <v>2346</v>
+        <v>1917</v>
       </c>
       <c r="F991">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G991" t="s">
-        <v>2347</v>
+        <v>1918</v>
       </c>
       <c r="H991">
         <v>3</v>
@@ -37475,19 +37475,19 @@
         <v>2226</v>
       </c>
       <c r="C992" t="s">
-        <v>1911</v>
+        <v>2344</v>
       </c>
       <c r="D992" t="s">
-        <v>1912</v>
+        <v>2345</v>
       </c>
       <c r="E992" t="s">
-        <v>1913</v>
+        <v>2346</v>
       </c>
       <c r="F992">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G992" t="s">
-        <v>1914</v>
+        <v>2347</v>
       </c>
       <c r="H992">
         <v>3</v>
@@ -37504,19 +37504,19 @@
         <v>2226</v>
       </c>
       <c r="C993" t="s">
-        <v>1619</v>
+        <v>1911</v>
       </c>
       <c r="D993" t="s">
-        <v>2227</v>
+        <v>1912</v>
       </c>
       <c r="E993" t="s">
-        <v>1620</v>
+        <v>1913</v>
       </c>
       <c r="F993">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="G993" t="s">
-        <v>1621</v>
+        <v>1914</v>
       </c>
       <c r="H993">
         <v>3</v>
@@ -37533,19 +37533,19 @@
         <v>2226</v>
       </c>
       <c r="C994" t="s">
-        <v>2275</v>
+        <v>1619</v>
       </c>
       <c r="D994" t="s">
-        <v>2276</v>
+        <v>2227</v>
       </c>
       <c r="E994" t="s">
-        <v>2277</v>
+        <v>1620</v>
       </c>
       <c r="F994">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G994" t="s">
-        <v>2278</v>
+        <v>1621</v>
       </c>
       <c r="H994">
         <v>3</v>
@@ -37562,19 +37562,19 @@
         <v>2226</v>
       </c>
       <c r="C995" t="s">
-        <v>2348</v>
+        <v>2275</v>
       </c>
       <c r="D995" t="s">
-        <v>2349</v>
+        <v>2276</v>
       </c>
       <c r="E995" t="s">
-        <v>2350</v>
+        <v>2277</v>
       </c>
       <c r="F995">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G995" t="s">
-        <v>2351</v>
+        <v>2278</v>
       </c>
       <c r="H995">
         <v>3</v>
@@ -37591,19 +37591,19 @@
         <v>2226</v>
       </c>
       <c r="C996" t="s">
-        <v>1978</v>
+        <v>2348</v>
       </c>
       <c r="D996" t="s">
-        <v>1994</v>
+        <v>2349</v>
       </c>
       <c r="E996" t="s">
-        <v>1980</v>
+        <v>2350</v>
       </c>
       <c r="F996">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G996" t="s">
-        <v>1995</v>
+        <v>2351</v>
       </c>
       <c r="H996">
         <v>3</v>
@@ -37620,19 +37620,19 @@
         <v>2226</v>
       </c>
       <c r="C997" t="s">
-        <v>2489</v>
+        <v>1978</v>
       </c>
       <c r="D997" t="s">
-        <v>202</v>
+        <v>1994</v>
       </c>
       <c r="E997" t="s">
-        <v>203</v>
+        <v>1980</v>
       </c>
       <c r="F997">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G997" t="s">
-        <v>204</v>
+        <v>1995</v>
       </c>
       <c r="H997">
         <v>3</v>
@@ -37649,19 +37649,19 @@
         <v>2226</v>
       </c>
       <c r="C998" t="s">
-        <v>2326</v>
+        <v>2489</v>
       </c>
       <c r="D998" t="s">
-        <v>2327</v>
+        <v>202</v>
       </c>
       <c r="E998" t="s">
-        <v>2328</v>
+        <v>203</v>
       </c>
       <c r="F998">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G998" t="s">
-        <v>2329</v>
+        <v>204</v>
       </c>
       <c r="H998">
         <v>3</v>
@@ -37678,19 +37678,19 @@
         <v>2226</v>
       </c>
       <c r="C999" t="s">
-        <v>719</v>
+        <v>2326</v>
       </c>
       <c r="D999" t="s">
-        <v>720</v>
+        <v>2327</v>
       </c>
       <c r="E999" t="s">
-        <v>721</v>
+        <v>2328</v>
       </c>
       <c r="F999">
         <v>2019</v>
       </c>
       <c r="G999" t="s">
-        <v>722</v>
+        <v>2329</v>
       </c>
       <c r="H999">
         <v>3</v>
@@ -37707,19 +37707,19 @@
         <v>2226</v>
       </c>
       <c r="C1000" t="s">
-        <v>2752</v>
+        <v>719</v>
       </c>
       <c r="D1000" t="s">
-        <v>2333</v>
+        <v>720</v>
       </c>
       <c r="E1000" t="s">
-        <v>2334</v>
+        <v>721</v>
       </c>
       <c r="F1000">
         <v>2019</v>
       </c>
       <c r="G1000" t="s">
-        <v>2335</v>
+        <v>722</v>
       </c>
       <c r="H1000">
         <v>3</v>
@@ -37736,19 +37736,19 @@
         <v>2226</v>
       </c>
       <c r="C1001" t="s">
-        <v>2336</v>
+        <v>2752</v>
       </c>
       <c r="D1001" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="E1001" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="F1001">
         <v>2019</v>
       </c>
       <c r="G1001" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="H1001">
         <v>3</v>
@@ -37765,19 +37765,19 @@
         <v>2226</v>
       </c>
       <c r="C1002" t="s">
-        <v>2355</v>
+        <v>2336</v>
       </c>
       <c r="D1002" t="s">
-        <v>2356</v>
+        <v>2337</v>
       </c>
       <c r="E1002" t="s">
-        <v>2357</v>
+        <v>2338</v>
       </c>
       <c r="F1002">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G1002" t="s">
-        <v>17</v>
+        <v>2339</v>
       </c>
       <c r="H1002">
         <v>3</v>
@@ -37794,19 +37794,19 @@
         <v>2226</v>
       </c>
       <c r="C1003" t="s">
-        <v>2271</v>
+        <v>2355</v>
       </c>
       <c r="D1003" t="s">
-        <v>2272</v>
+        <v>2356</v>
       </c>
       <c r="E1003" t="s">
-        <v>2273</v>
+        <v>2357</v>
       </c>
       <c r="F1003">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G1003" t="s">
-        <v>2274</v>
+        <v>17</v>
       </c>
       <c r="H1003">
         <v>3</v>
@@ -37823,19 +37823,19 @@
         <v>2226</v>
       </c>
       <c r="C1004" t="s">
-        <v>2295</v>
+        <v>2271</v>
       </c>
       <c r="D1004" t="s">
-        <v>2296</v>
+        <v>2272</v>
       </c>
       <c r="E1004" t="s">
-        <v>2297</v>
+        <v>2273</v>
       </c>
       <c r="F1004">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G1004" t="s">
-        <v>2298</v>
+        <v>2274</v>
       </c>
       <c r="H1004">
         <v>3</v>
@@ -37852,19 +37852,19 @@
         <v>2226</v>
       </c>
       <c r="C1005" t="s">
-        <v>1057</v>
+        <v>2295</v>
       </c>
       <c r="D1005" t="s">
-        <v>1058</v>
+        <v>2296</v>
       </c>
       <c r="E1005" t="s">
-        <v>1059</v>
+        <v>2297</v>
       </c>
       <c r="F1005">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G1005" t="s">
-        <v>1060</v>
+        <v>2298</v>
       </c>
       <c r="H1005">
         <v>3</v>
@@ -37881,19 +37881,19 @@
         <v>2226</v>
       </c>
       <c r="C1006" t="s">
-        <v>2311</v>
+        <v>1057</v>
       </c>
       <c r="D1006" t="s">
-        <v>2312</v>
+        <v>1058</v>
       </c>
       <c r="E1006" t="s">
-        <v>2313</v>
+        <v>1059</v>
       </c>
       <c r="F1006">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G1006" t="s">
-        <v>2314</v>
+        <v>1060</v>
       </c>
       <c r="H1006">
         <v>3</v>
@@ -37910,19 +37910,19 @@
         <v>2226</v>
       </c>
       <c r="C1007" t="s">
-        <v>2263</v>
+        <v>2311</v>
       </c>
       <c r="D1007" t="s">
-        <v>2264</v>
+        <v>2312</v>
       </c>
       <c r="E1007" t="s">
-        <v>2265</v>
+        <v>2313</v>
       </c>
       <c r="F1007">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G1007" t="s">
-        <v>2266</v>
+        <v>2314</v>
       </c>
       <c r="H1007">
         <v>3</v>
@@ -37939,19 +37939,19 @@
         <v>2226</v>
       </c>
       <c r="C1008" t="s">
-        <v>2287</v>
+        <v>2263</v>
       </c>
       <c r="D1008" t="s">
-        <v>2288</v>
+        <v>2264</v>
       </c>
       <c r="E1008" t="s">
-        <v>2289</v>
+        <v>2265</v>
       </c>
       <c r="F1008">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G1008" t="s">
-        <v>2290</v>
+        <v>2266</v>
       </c>
       <c r="H1008">
         <v>3</v>
@@ -37968,19 +37968,19 @@
         <v>2226</v>
       </c>
       <c r="C1009" t="s">
-        <v>2248</v>
+        <v>2287</v>
       </c>
       <c r="D1009" t="s">
-        <v>2249</v>
+        <v>2288</v>
       </c>
       <c r="E1009" t="s">
-        <v>2250</v>
+        <v>2289</v>
       </c>
       <c r="F1009">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G1009" t="s">
-        <v>2251</v>
+        <v>2290</v>
       </c>
       <c r="H1009">
         <v>3</v>
@@ -37997,19 +37997,19 @@
         <v>2226</v>
       </c>
       <c r="C1010" t="s">
-        <v>2340</v>
+        <v>2248</v>
       </c>
       <c r="D1010" t="s">
-        <v>2341</v>
+        <v>2249</v>
       </c>
       <c r="E1010" t="s">
-        <v>2342</v>
+        <v>2250</v>
       </c>
       <c r="F1010">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G1010" t="s">
-        <v>2343</v>
+        <v>2251</v>
       </c>
       <c r="H1010">
         <v>3</v>
@@ -38026,19 +38026,19 @@
         <v>2226</v>
       </c>
       <c r="C1011" t="s">
-        <v>572</v>
+        <v>2340</v>
       </c>
       <c r="D1011" t="s">
-        <v>573</v>
+        <v>2341</v>
       </c>
       <c r="E1011" t="s">
-        <v>574</v>
+        <v>2342</v>
       </c>
       <c r="F1011">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="G1011" t="s">
-        <v>575</v>
+        <v>2343</v>
       </c>
       <c r="H1011">
         <v>3</v>
@@ -38055,19 +38055,19 @@
         <v>2226</v>
       </c>
       <c r="C1012" t="s">
-        <v>2240</v>
+        <v>572</v>
       </c>
       <c r="D1012" t="s">
-        <v>2241</v>
+        <v>573</v>
       </c>
       <c r="E1012" t="s">
-        <v>2242</v>
+        <v>574</v>
       </c>
       <c r="F1012">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G1012" t="s">
-        <v>2243</v>
+        <v>575</v>
       </c>
       <c r="H1012">
         <v>3</v>
@@ -38084,19 +38084,19 @@
         <v>2226</v>
       </c>
       <c r="C1013" t="s">
-        <v>2753</v>
+        <v>2240</v>
       </c>
       <c r="D1013" t="s">
-        <v>2315</v>
+        <v>2241</v>
       </c>
       <c r="E1013" t="s">
-        <v>2316</v>
+        <v>2242</v>
       </c>
       <c r="F1013">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G1013" t="s">
-        <v>2317</v>
+        <v>2243</v>
       </c>
       <c r="H1013">
         <v>3</v>
@@ -38113,19 +38113,19 @@
         <v>2226</v>
       </c>
       <c r="C1014" t="s">
-        <v>2228</v>
+        <v>2753</v>
       </c>
       <c r="D1014" t="s">
-        <v>2229</v>
+        <v>2315</v>
       </c>
       <c r="E1014" t="s">
-        <v>2230</v>
+        <v>2316</v>
       </c>
       <c r="F1014">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G1014" t="s">
-        <v>2231</v>
+        <v>2317</v>
       </c>
       <c r="H1014">
         <v>3</v>
@@ -38142,19 +38142,19 @@
         <v>2226</v>
       </c>
       <c r="C1015" t="s">
-        <v>2256</v>
+        <v>2228</v>
       </c>
       <c r="D1015" t="s">
-        <v>2257</v>
+        <v>2229</v>
       </c>
       <c r="E1015" t="s">
-        <v>2754</v>
+        <v>2230</v>
       </c>
       <c r="F1015">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G1015" t="s">
-        <v>2258</v>
+        <v>2231</v>
       </c>
       <c r="H1015">
         <v>3</v>
@@ -38171,19 +38171,19 @@
         <v>2226</v>
       </c>
       <c r="C1016" t="s">
-        <v>727</v>
+        <v>2256</v>
       </c>
       <c r="D1016" t="s">
-        <v>728</v>
+        <v>2257</v>
       </c>
       <c r="E1016" t="s">
-        <v>729</v>
+        <v>2754</v>
       </c>
       <c r="F1016">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G1016" t="s">
-        <v>730</v>
+        <v>2258</v>
       </c>
       <c r="H1016">
         <v>3</v>
@@ -38200,19 +38200,19 @@
         <v>2226</v>
       </c>
       <c r="C1017" t="s">
-        <v>1846</v>
+        <v>727</v>
       </c>
       <c r="D1017" t="s">
-        <v>1847</v>
+        <v>728</v>
       </c>
       <c r="E1017" t="s">
-        <v>1848</v>
+        <v>729</v>
       </c>
       <c r="F1017">
         <v>2019</v>
       </c>
       <c r="G1017" t="s">
-        <v>1849</v>
+        <v>730</v>
       </c>
       <c r="H1017">
         <v>3</v>
@@ -38229,19 +38229,19 @@
         <v>2226</v>
       </c>
       <c r="C1018" t="s">
-        <v>2279</v>
+        <v>1846</v>
       </c>
       <c r="D1018" t="s">
-        <v>2280</v>
+        <v>1847</v>
       </c>
       <c r="E1018" t="s">
-        <v>2281</v>
+        <v>1848</v>
       </c>
       <c r="F1018">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G1018" t="s">
-        <v>2282</v>
+        <v>1849</v>
       </c>
       <c r="H1018">
         <v>3</v>
@@ -38258,19 +38258,19 @@
         <v>2226</v>
       </c>
       <c r="C1019" t="s">
-        <v>723</v>
+        <v>2279</v>
       </c>
       <c r="D1019" t="s">
-        <v>724</v>
+        <v>2280</v>
       </c>
       <c r="E1019" t="s">
-        <v>725</v>
+        <v>2281</v>
       </c>
       <c r="F1019">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G1019" t="s">
-        <v>726</v>
+        <v>2282</v>
       </c>
       <c r="H1019">
         <v>3</v>
@@ -38287,19 +38287,19 @@
         <v>2226</v>
       </c>
       <c r="C1020" t="s">
-        <v>2322</v>
+        <v>723</v>
       </c>
       <c r="D1020" t="s">
-        <v>2323</v>
+        <v>724</v>
       </c>
       <c r="E1020" t="s">
-        <v>2324</v>
+        <v>725</v>
       </c>
       <c r="F1020">
         <v>2019</v>
       </c>
       <c r="G1020" t="s">
-        <v>2325</v>
+        <v>726</v>
       </c>
       <c r="H1020">
         <v>3</v>
@@ -38316,19 +38316,19 @@
         <v>2226</v>
       </c>
       <c r="C1021" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="D1021" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="E1021" t="s">
-        <v>2320</v>
+        <v>2324</v>
       </c>
       <c r="F1021">
         <v>2019</v>
       </c>
       <c r="G1021" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="H1021">
         <v>3</v>
@@ -38345,19 +38345,19 @@
         <v>2226</v>
       </c>
       <c r="C1022" t="s">
-        <v>2303</v>
+        <v>2318</v>
       </c>
       <c r="D1022" t="s">
-        <v>2304</v>
+        <v>2319</v>
       </c>
       <c r="E1022" t="s">
-        <v>2305</v>
+        <v>2320</v>
       </c>
       <c r="F1022">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G1022" t="s">
-        <v>2306</v>
+        <v>2321</v>
       </c>
       <c r="H1022">
         <v>3</v>
@@ -38374,19 +38374,19 @@
         <v>2226</v>
       </c>
       <c r="C1023" t="s">
-        <v>2755</v>
+        <v>2303</v>
       </c>
       <c r="D1023" t="s">
-        <v>2259</v>
+        <v>2304</v>
       </c>
       <c r="E1023" t="s">
-        <v>2260</v>
+        <v>2305</v>
       </c>
       <c r="F1023">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G1023" t="s">
-        <v>2261</v>
+        <v>2306</v>
       </c>
       <c r="H1023">
         <v>3</v>
@@ -38403,19 +38403,19 @@
         <v>2226</v>
       </c>
       <c r="C1024" t="s">
-        <v>1889</v>
+        <v>2755</v>
       </c>
       <c r="D1024" t="s">
-        <v>1890</v>
+        <v>2259</v>
       </c>
       <c r="E1024" t="s">
-        <v>1891</v>
+        <v>2260</v>
       </c>
       <c r="F1024">
         <v>2021</v>
       </c>
       <c r="G1024" t="s">
-        <v>1892</v>
+        <v>2261</v>
       </c>
       <c r="H1024">
         <v>3</v>
@@ -38432,19 +38432,19 @@
         <v>2226</v>
       </c>
       <c r="C1025" t="s">
-        <v>1842</v>
+        <v>1889</v>
       </c>
       <c r="D1025" t="s">
-        <v>1843</v>
+        <v>1890</v>
       </c>
       <c r="E1025" t="s">
-        <v>1844</v>
+        <v>1891</v>
       </c>
       <c r="F1025">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G1025" t="s">
-        <v>1845</v>
+        <v>1892</v>
       </c>
       <c r="H1025">
         <v>3</v>
@@ -38461,19 +38461,19 @@
         <v>2226</v>
       </c>
       <c r="C1026" t="s">
-        <v>379</v>
+        <v>1842</v>
       </c>
       <c r="D1026" t="s">
-        <v>380</v>
+        <v>1843</v>
       </c>
       <c r="E1026" t="s">
-        <v>381</v>
+        <v>1844</v>
       </c>
       <c r="F1026">
         <v>2020</v>
       </c>
       <c r="G1026" t="s">
-        <v>382</v>
+        <v>1845</v>
       </c>
       <c r="H1026">
         <v>3</v>
@@ -38490,19 +38490,19 @@
         <v>2226</v>
       </c>
       <c r="C1027" t="s">
-        <v>2756</v>
+        <v>379</v>
       </c>
       <c r="D1027" t="s">
-        <v>2330</v>
+        <v>380</v>
       </c>
       <c r="E1027" t="s">
-        <v>2331</v>
+        <v>381</v>
       </c>
       <c r="F1027">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1027" t="s">
-        <v>2332</v>
+        <v>382</v>
       </c>
       <c r="H1027">
         <v>3</v>
@@ -38519,19 +38519,19 @@
         <v>2226</v>
       </c>
       <c r="C1028" t="s">
-        <v>2244</v>
+        <v>2756</v>
       </c>
       <c r="D1028" t="s">
-        <v>2245</v>
+        <v>2330</v>
       </c>
       <c r="E1028" t="s">
-        <v>2246</v>
+        <v>2331</v>
       </c>
       <c r="F1028">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G1028" t="s">
-        <v>2247</v>
+        <v>2332</v>
       </c>
       <c r="H1028">
         <v>3</v>
@@ -38548,19 +38548,19 @@
         <v>2226</v>
       </c>
       <c r="C1029" t="s">
-        <v>2299</v>
+        <v>2244</v>
       </c>
       <c r="D1029" t="s">
-        <v>2300</v>
+        <v>2245</v>
       </c>
       <c r="E1029" t="s">
-        <v>2301</v>
+        <v>2246</v>
       </c>
       <c r="F1029">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G1029" t="s">
-        <v>2302</v>
+        <v>2247</v>
       </c>
       <c r="H1029">
         <v>3</v>
@@ -38577,19 +38577,19 @@
         <v>2226</v>
       </c>
       <c r="C1030" t="s">
-        <v>1819</v>
+        <v>2299</v>
       </c>
       <c r="D1030" t="s">
-        <v>1820</v>
+        <v>2300</v>
       </c>
       <c r="E1030" t="s">
-        <v>1821</v>
+        <v>2301</v>
       </c>
       <c r="F1030">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="G1030" t="s">
-        <v>1822</v>
+        <v>2302</v>
       </c>
       <c r="H1030">
         <v>3</v>
@@ -38606,19 +38606,19 @@
         <v>2226</v>
       </c>
       <c r="C1031" t="s">
-        <v>1674</v>
+        <v>1819</v>
       </c>
       <c r="D1031" t="s">
-        <v>1675</v>
+        <v>1820</v>
       </c>
       <c r="E1031" t="s">
-        <v>1676</v>
+        <v>1821</v>
       </c>
       <c r="F1031">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="G1031" t="s">
-        <v>1677</v>
+        <v>1822</v>
       </c>
       <c r="H1031">
         <v>3</v>
@@ -38635,19 +38635,19 @@
         <v>2226</v>
       </c>
       <c r="C1032" t="s">
-        <v>2236</v>
+        <v>1674</v>
       </c>
       <c r="D1032" t="s">
-        <v>2237</v>
+        <v>1675</v>
       </c>
       <c r="E1032" t="s">
-        <v>2238</v>
+        <v>1676</v>
       </c>
       <c r="F1032">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G1032" t="s">
-        <v>2239</v>
+        <v>1677</v>
       </c>
       <c r="H1032">
         <v>3</v>
@@ -38664,19 +38664,19 @@
         <v>2226</v>
       </c>
       <c r="C1033" t="s">
-        <v>1966</v>
+        <v>2236</v>
       </c>
       <c r="D1033" t="s">
-        <v>2262</v>
+        <v>2237</v>
       </c>
       <c r="E1033" t="s">
-        <v>1968</v>
+        <v>2238</v>
       </c>
       <c r="F1033">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G1033" t="s">
-        <v>1969</v>
+        <v>2239</v>
       </c>
       <c r="H1033">
         <v>3</v>
@@ -38693,19 +38693,19 @@
         <v>2226</v>
       </c>
       <c r="C1034" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="D1034" t="s">
-        <v>1975</v>
+        <v>2262</v>
       </c>
       <c r="E1034" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="F1034">
         <v>2021</v>
       </c>
       <c r="G1034" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="H1034">
         <v>3</v>
@@ -38716,25 +38716,25 @@
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1035">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1035" t="s">
-        <v>2358</v>
+        <v>2226</v>
       </c>
       <c r="C1035" t="s">
-        <v>278</v>
+        <v>1974</v>
       </c>
       <c r="D1035" t="s">
-        <v>279</v>
+        <v>1975</v>
       </c>
       <c r="E1035" t="s">
-        <v>280</v>
+        <v>1976</v>
       </c>
       <c r="F1035">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G1035" t="s">
-        <v>281</v>
+        <v>1977</v>
       </c>
       <c r="H1035">
         <v>3</v>
@@ -38751,19 +38751,19 @@
         <v>2358</v>
       </c>
       <c r="C1036" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="D1036" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="E1036" t="s">
-        <v>2368</v>
+        <v>280</v>
       </c>
       <c r="F1036">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G1036" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="H1036">
         <v>3</v>
@@ -38780,19 +38780,19 @@
         <v>2358</v>
       </c>
       <c r="C1037" t="s">
-        <v>419</v>
+        <v>321</v>
       </c>
       <c r="D1037" t="s">
-        <v>420</v>
+        <v>322</v>
       </c>
       <c r="E1037" t="s">
-        <v>421</v>
+        <v>2368</v>
       </c>
       <c r="F1037">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G1037" t="s">
-        <v>422</v>
+        <v>324</v>
       </c>
       <c r="H1037">
         <v>3</v>
@@ -38809,19 +38809,19 @@
         <v>2358</v>
       </c>
       <c r="C1038" t="s">
-        <v>1261</v>
+        <v>419</v>
       </c>
       <c r="D1038" t="s">
-        <v>2757</v>
+        <v>420</v>
       </c>
       <c r="E1038" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1038" t="s">
-        <v>17</v>
+        <v>421</v>
+      </c>
+      <c r="F1038">
+        <v>2019</v>
       </c>
       <c r="G1038" t="s">
-        <v>17</v>
+        <v>422</v>
       </c>
       <c r="H1038">
         <v>3</v>
@@ -38838,10 +38838,10 @@
         <v>2358</v>
       </c>
       <c r="C1039" t="s">
-        <v>2415</v>
+        <v>1261</v>
       </c>
       <c r="D1039" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="E1039" t="s">
         <v>17</v>
@@ -38867,19 +38867,19 @@
         <v>2358</v>
       </c>
       <c r="C1040" t="s">
-        <v>2381</v>
+        <v>2415</v>
       </c>
       <c r="D1040" t="s">
-        <v>2382</v>
+        <v>2758</v>
       </c>
       <c r="E1040" t="s">
-        <v>2383</v>
-      </c>
-      <c r="F1040">
-        <v>2020</v>
+        <v>17</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>17</v>
       </c>
       <c r="G1040" t="s">
-        <v>2384</v>
+        <v>17</v>
       </c>
       <c r="H1040">
         <v>3</v>
@@ -38896,19 +38896,19 @@
         <v>2358</v>
       </c>
       <c r="C1041" t="s">
-        <v>2401</v>
+        <v>2381</v>
       </c>
       <c r="D1041" t="s">
-        <v>2402</v>
+        <v>2382</v>
       </c>
       <c r="E1041" t="s">
-        <v>2403</v>
+        <v>2383</v>
       </c>
       <c r="F1041">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1041" t="s">
-        <v>2404</v>
+        <v>2384</v>
       </c>
       <c r="H1041">
         <v>3</v>
@@ -38925,19 +38925,19 @@
         <v>2358</v>
       </c>
       <c r="C1042" t="s">
-        <v>1838</v>
+        <v>2401</v>
       </c>
       <c r="D1042" t="s">
-        <v>1839</v>
+        <v>2402</v>
       </c>
       <c r="E1042" t="s">
-        <v>1840</v>
+        <v>2403</v>
       </c>
       <c r="F1042">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G1042" t="s">
-        <v>1841</v>
+        <v>2404</v>
       </c>
       <c r="H1042">
         <v>3</v>
@@ -38954,19 +38954,19 @@
         <v>2358</v>
       </c>
       <c r="C1043" t="s">
-        <v>2422</v>
+        <v>1838</v>
       </c>
       <c r="D1043" t="s">
-        <v>2759</v>
+        <v>1839</v>
       </c>
       <c r="E1043" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1043" t="s">
-        <v>17</v>
+        <v>1840</v>
+      </c>
+      <c r="F1043">
+        <v>2021</v>
       </c>
       <c r="G1043" t="s">
-        <v>17</v>
+        <v>1841</v>
       </c>
       <c r="H1043">
         <v>3</v>
@@ -38983,19 +38983,19 @@
         <v>2358</v>
       </c>
       <c r="C1044" t="s">
-        <v>348</v>
+        <v>2422</v>
       </c>
       <c r="D1044" t="s">
-        <v>349</v>
+        <v>2759</v>
       </c>
       <c r="E1044" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1044">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>17</v>
       </c>
       <c r="G1044" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="H1044">
         <v>3</v>
@@ -39012,19 +39012,19 @@
         <v>2358</v>
       </c>
       <c r="C1045" t="s">
-        <v>2419</v>
+        <v>348</v>
       </c>
       <c r="D1045" t="s">
-        <v>2760</v>
+        <v>349</v>
       </c>
       <c r="E1045" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1045" t="s">
-        <v>17</v>
+        <v>350</v>
+      </c>
+      <c r="F1045">
+        <v>2021</v>
       </c>
       <c r="G1045" t="s">
-        <v>17</v>
+        <v>351</v>
       </c>
       <c r="H1045">
         <v>3</v>
@@ -39041,16 +39041,16 @@
         <v>2358</v>
       </c>
       <c r="C1046" t="s">
-        <v>2427</v>
+        <v>2419</v>
       </c>
       <c r="D1046" t="s">
-        <v>2428</v>
+        <v>2760</v>
       </c>
       <c r="E1046" t="s">
-        <v>2429</v>
-      </c>
-      <c r="F1046">
-        <v>2022</v>
+        <v>17</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>17</v>
       </c>
       <c r="G1046" t="s">
         <v>17</v>
@@ -39070,19 +39070,19 @@
         <v>2358</v>
       </c>
       <c r="C1047" t="s">
-        <v>1199</v>
+        <v>2427</v>
       </c>
       <c r="D1047" t="s">
-        <v>1200</v>
+        <v>2428</v>
       </c>
       <c r="E1047" t="s">
-        <v>1201</v>
+        <v>2429</v>
       </c>
       <c r="F1047">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G1047" t="s">
-        <v>1202</v>
+        <v>17</v>
       </c>
       <c r="H1047">
         <v>3</v>
@@ -39099,19 +39099,19 @@
         <v>2358</v>
       </c>
       <c r="C1048" t="s">
-        <v>2363</v>
+        <v>1199</v>
       </c>
       <c r="D1048" t="s">
-        <v>2364</v>
+        <v>1200</v>
       </c>
       <c r="E1048" t="s">
-        <v>2365</v>
+        <v>1201</v>
       </c>
       <c r="F1048">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G1048" t="s">
-        <v>2366</v>
+        <v>1202</v>
       </c>
       <c r="H1048">
         <v>3</v>
@@ -39128,19 +39128,19 @@
         <v>2358</v>
       </c>
       <c r="C1049" t="s">
-        <v>2425</v>
+        <v>2363</v>
       </c>
       <c r="D1049" t="s">
-        <v>2761</v>
+        <v>2364</v>
       </c>
       <c r="E1049" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1049" t="s">
-        <v>17</v>
+        <v>2365</v>
+      </c>
+      <c r="F1049">
+        <v>2022</v>
       </c>
       <c r="G1049" t="s">
-        <v>17</v>
+        <v>2366</v>
       </c>
       <c r="H1049">
         <v>3</v>
@@ -39157,19 +39157,19 @@
         <v>2358</v>
       </c>
       <c r="C1050" t="s">
-        <v>2405</v>
+        <v>2425</v>
       </c>
       <c r="D1050" t="s">
-        <v>2406</v>
+        <v>2761</v>
       </c>
       <c r="E1050" t="s">
-        <v>2407</v>
-      </c>
-      <c r="F1050">
-        <v>2018</v>
+        <v>17</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>17</v>
       </c>
       <c r="G1050" t="s">
-        <v>2408</v>
+        <v>17</v>
       </c>
       <c r="H1050">
         <v>3</v>
@@ -39186,19 +39186,19 @@
         <v>2358</v>
       </c>
       <c r="C1051" t="s">
-        <v>2385</v>
+        <v>2405</v>
       </c>
       <c r="D1051" t="s">
-        <v>2386</v>
+        <v>2406</v>
       </c>
       <c r="E1051" t="s">
-        <v>2387</v>
+        <v>2407</v>
       </c>
       <c r="F1051">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G1051" t="s">
-        <v>2388</v>
+        <v>2408</v>
       </c>
       <c r="H1051">
         <v>3</v>
@@ -39215,19 +39215,19 @@
         <v>2358</v>
       </c>
       <c r="C1052" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="D1052" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="E1052" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="F1052">
         <v>2020</v>
       </c>
       <c r="G1052" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="H1052">
         <v>3</v>
@@ -39244,19 +39244,19 @@
         <v>2358</v>
       </c>
       <c r="C1053" t="s">
-        <v>2424</v>
+        <v>2389</v>
       </c>
       <c r="D1053" t="s">
-        <v>2762</v>
+        <v>2390</v>
       </c>
       <c r="E1053" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1053" t="s">
-        <v>17</v>
+        <v>2391</v>
+      </c>
+      <c r="F1053">
+        <v>2020</v>
       </c>
       <c r="G1053" t="s">
-        <v>17</v>
+        <v>2392</v>
       </c>
       <c r="H1053">
         <v>3</v>
@@ -39273,19 +39273,19 @@
         <v>2358</v>
       </c>
       <c r="C1054" t="s">
-        <v>2369</v>
+        <v>2424</v>
       </c>
       <c r="D1054" t="s">
-        <v>2370</v>
+        <v>2762</v>
       </c>
       <c r="E1054" t="s">
-        <v>2371</v>
-      </c>
-      <c r="F1054">
-        <v>2022</v>
+        <v>17</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>17</v>
       </c>
       <c r="G1054" t="s">
-        <v>2372</v>
+        <v>17</v>
       </c>
       <c r="H1054">
         <v>3</v>
@@ -39302,19 +39302,19 @@
         <v>2358</v>
       </c>
       <c r="C1055" t="s">
-        <v>2421</v>
+        <v>2369</v>
       </c>
       <c r="D1055" t="s">
-        <v>2763</v>
+        <v>2370</v>
       </c>
       <c r="E1055" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1055" t="s">
-        <v>17</v>
+        <v>2371</v>
+      </c>
+      <c r="F1055">
+        <v>2022</v>
       </c>
       <c r="G1055" t="s">
-        <v>17</v>
+        <v>2372</v>
       </c>
       <c r="H1055">
         <v>3</v>
@@ -39331,19 +39331,19 @@
         <v>2358</v>
       </c>
       <c r="C1056" t="s">
-        <v>407</v>
+        <v>2421</v>
       </c>
       <c r="D1056" t="s">
-        <v>408</v>
+        <v>2763</v>
       </c>
       <c r="E1056" t="s">
-        <v>409</v>
-      </c>
-      <c r="F1056">
-        <v>2020</v>
+        <v>17</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>17</v>
       </c>
       <c r="G1056" t="s">
-        <v>410</v>
+        <v>17</v>
       </c>
       <c r="H1056">
         <v>3</v>
@@ -39360,19 +39360,19 @@
         <v>2358</v>
       </c>
       <c r="C1057" t="s">
-        <v>2430</v>
+        <v>407</v>
       </c>
       <c r="D1057" t="s">
-        <v>2431</v>
+        <v>408</v>
       </c>
       <c r="E1057" t="s">
-        <v>2432</v>
+        <v>409</v>
       </c>
       <c r="F1057">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G1057" t="s">
-        <v>17</v>
+        <v>410</v>
       </c>
       <c r="H1057">
         <v>3</v>
@@ -39389,16 +39389,16 @@
         <v>2358</v>
       </c>
       <c r="C1058" t="s">
-        <v>2413</v>
+        <v>2430</v>
       </c>
       <c r="D1058" t="s">
-        <v>2764</v>
+        <v>2431</v>
       </c>
       <c r="E1058" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1058" t="s">
-        <v>17</v>
+        <v>2432</v>
+      </c>
+      <c r="F1058">
+        <v>2022</v>
       </c>
       <c r="G1058" t="s">
         <v>17</v>
@@ -39418,19 +39418,19 @@
         <v>2358</v>
       </c>
       <c r="C1059" t="s">
-        <v>2377</v>
+        <v>2413</v>
       </c>
       <c r="D1059" t="s">
-        <v>2378</v>
+        <v>2764</v>
       </c>
       <c r="E1059" t="s">
-        <v>2379</v>
-      </c>
-      <c r="F1059">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>17</v>
       </c>
       <c r="G1059" t="s">
-        <v>2380</v>
+        <v>17</v>
       </c>
       <c r="H1059">
         <v>3</v>
@@ -39447,19 +39447,19 @@
         <v>2358</v>
       </c>
       <c r="C1060" t="s">
-        <v>2146</v>
+        <v>2377</v>
       </c>
       <c r="D1060" t="s">
-        <v>2147</v>
+        <v>2378</v>
       </c>
       <c r="E1060" t="s">
-        <v>2148</v>
+        <v>2379</v>
       </c>
       <c r="F1060">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G1060" t="s">
-        <v>2149</v>
+        <v>2380</v>
       </c>
       <c r="H1060">
         <v>3</v>
@@ -39476,19 +39476,19 @@
         <v>2358</v>
       </c>
       <c r="C1061" t="s">
-        <v>1903</v>
+        <v>2146</v>
       </c>
       <c r="D1061" t="s">
-        <v>1904</v>
+        <v>2147</v>
       </c>
       <c r="E1061" t="s">
-        <v>1905</v>
+        <v>2148</v>
       </c>
       <c r="F1061">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G1061" t="s">
-        <v>1906</v>
+        <v>2149</v>
       </c>
       <c r="H1061">
         <v>3</v>
@@ -39505,19 +39505,19 @@
         <v>2358</v>
       </c>
       <c r="C1062" t="s">
-        <v>2393</v>
+        <v>1903</v>
       </c>
       <c r="D1062" t="s">
-        <v>2394</v>
+        <v>1904</v>
       </c>
       <c r="E1062" t="s">
-        <v>2395</v>
+        <v>1905</v>
       </c>
       <c r="F1062">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1062" t="s">
-        <v>2396</v>
+        <v>1906</v>
       </c>
       <c r="H1062">
         <v>3</v>
@@ -39534,19 +39534,19 @@
         <v>2358</v>
       </c>
       <c r="C1063" t="s">
-        <v>2416</v>
+        <v>2393</v>
       </c>
       <c r="D1063" t="s">
-        <v>2765</v>
+        <v>2394</v>
       </c>
       <c r="E1063" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1063" t="s">
-        <v>17</v>
+        <v>2395</v>
+      </c>
+      <c r="F1063">
+        <v>2019</v>
       </c>
       <c r="G1063" t="s">
-        <v>17</v>
+        <v>2396</v>
       </c>
       <c r="H1063">
         <v>3</v>
@@ -39563,10 +39563,10 @@
         <v>2358</v>
       </c>
       <c r="C1064" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="D1064" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="E1064" t="s">
         <v>17</v>
@@ -39592,19 +39592,19 @@
         <v>2358</v>
       </c>
       <c r="C1065" t="s">
-        <v>285</v>
+        <v>2414</v>
       </c>
       <c r="D1065" t="s">
-        <v>286</v>
+        <v>2766</v>
       </c>
       <c r="E1065" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1065">
-        <v>2022</v>
+        <v>17</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>17</v>
       </c>
       <c r="G1065" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="H1065">
         <v>3</v>
@@ -39621,19 +39621,19 @@
         <v>2358</v>
       </c>
       <c r="C1066" t="s">
-        <v>2417</v>
+        <v>285</v>
       </c>
       <c r="D1066" t="s">
-        <v>2767</v>
+        <v>286</v>
       </c>
       <c r="E1066" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1066" t="s">
-        <v>17</v>
+        <v>287</v>
+      </c>
+      <c r="F1066">
+        <v>2022</v>
       </c>
       <c r="G1066" t="s">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="H1066">
         <v>3</v>
@@ -39650,10 +39650,10 @@
         <v>2358</v>
       </c>
       <c r="C1067" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="D1067" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="E1067" t="s">
         <v>17</v>
@@ -39679,19 +39679,19 @@
         <v>2358</v>
       </c>
       <c r="C1068" t="s">
-        <v>2373</v>
+        <v>2420</v>
       </c>
       <c r="D1068" t="s">
-        <v>2374</v>
+        <v>2768</v>
       </c>
       <c r="E1068" t="s">
-        <v>2375</v>
-      </c>
-      <c r="F1068">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>17</v>
       </c>
       <c r="G1068" t="s">
-        <v>2376</v>
+        <v>17</v>
       </c>
       <c r="H1068">
         <v>3</v>
@@ -39708,19 +39708,19 @@
         <v>2358</v>
       </c>
       <c r="C1069" t="s">
-        <v>2418</v>
+        <v>2373</v>
       </c>
       <c r="D1069" t="s">
-        <v>2769</v>
+        <v>2374</v>
       </c>
       <c r="E1069" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1069" t="s">
-        <v>17</v>
+        <v>2375</v>
+      </c>
+      <c r="F1069">
+        <v>2021</v>
       </c>
       <c r="G1069" t="s">
-        <v>17</v>
+        <v>2376</v>
       </c>
       <c r="H1069">
         <v>3</v>
@@ -39737,19 +39737,19 @@
         <v>2358</v>
       </c>
       <c r="C1070" t="s">
-        <v>403</v>
+        <v>2418</v>
       </c>
       <c r="D1070" t="s">
-        <v>404</v>
+        <v>2769</v>
       </c>
       <c r="E1070" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1070">
-        <v>2020</v>
+        <v>17</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>406</v>
+        <v>17</v>
       </c>
       <c r="H1070">
         <v>3</v>
@@ -39766,19 +39766,19 @@
         <v>2358</v>
       </c>
       <c r="C1071" t="s">
-        <v>2359</v>
+        <v>403</v>
       </c>
       <c r="D1071" t="s">
-        <v>2360</v>
+        <v>404</v>
       </c>
       <c r="E1071" t="s">
-        <v>2361</v>
+        <v>405</v>
       </c>
       <c r="F1071">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G1071" t="s">
-        <v>2362</v>
+        <v>406</v>
       </c>
       <c r="H1071">
         <v>3</v>
@@ -39795,19 +39795,19 @@
         <v>2358</v>
       </c>
       <c r="C1072" t="s">
-        <v>313</v>
+        <v>2359</v>
       </c>
       <c r="D1072" t="s">
-        <v>2367</v>
+        <v>2360</v>
       </c>
       <c r="E1072" t="s">
-        <v>315</v>
+        <v>2361</v>
       </c>
       <c r="F1072">
         <v>2022</v>
       </c>
       <c r="G1072" t="s">
-        <v>316</v>
+        <v>2362</v>
       </c>
       <c r="H1072">
         <v>3</v>
@@ -39824,19 +39824,19 @@
         <v>2358</v>
       </c>
       <c r="C1073" t="s">
-        <v>2426</v>
+        <v>313</v>
       </c>
       <c r="D1073" t="s">
-        <v>2770</v>
+        <v>2367</v>
       </c>
       <c r="E1073" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1073" t="s">
-        <v>17</v>
+        <v>315</v>
+      </c>
+      <c r="F1073">
+        <v>2022</v>
       </c>
       <c r="G1073" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="H1073">
         <v>3</v>
@@ -39853,19 +39853,19 @@
         <v>2358</v>
       </c>
       <c r="C1074" t="s">
-        <v>2397</v>
+        <v>2426</v>
       </c>
       <c r="D1074" t="s">
-        <v>2398</v>
+        <v>2770</v>
       </c>
       <c r="E1074" t="s">
-        <v>2399</v>
-      </c>
-      <c r="F1074">
-        <v>2019</v>
+        <v>17</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>17</v>
       </c>
       <c r="G1074" t="s">
-        <v>2400</v>
+        <v>17</v>
       </c>
       <c r="H1074">
         <v>3</v>
@@ -39882,19 +39882,19 @@
         <v>2358</v>
       </c>
       <c r="C1075" t="s">
-        <v>1763</v>
+        <v>2397</v>
       </c>
       <c r="D1075" t="s">
-        <v>1764</v>
+        <v>2398</v>
       </c>
       <c r="E1075" t="s">
-        <v>1765</v>
+        <v>2399</v>
       </c>
       <c r="F1075">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G1075" t="s">
-        <v>1766</v>
+        <v>2400</v>
       </c>
       <c r="H1075">
         <v>3</v>
@@ -39911,19 +39911,19 @@
         <v>2358</v>
       </c>
       <c r="C1076" t="s">
-        <v>2409</v>
+        <v>1763</v>
       </c>
       <c r="D1076" t="s">
-        <v>2410</v>
+        <v>1764</v>
       </c>
       <c r="E1076" t="s">
-        <v>2411</v>
+        <v>1765</v>
       </c>
       <c r="F1076">
         <v>2018</v>
       </c>
       <c r="G1076" t="s">
-        <v>2412</v>
+        <v>1766</v>
       </c>
       <c r="H1076">
         <v>3</v>
@@ -39940,19 +39940,19 @@
         <v>2358</v>
       </c>
       <c r="C1077" t="s">
-        <v>2423</v>
+        <v>2409</v>
       </c>
       <c r="D1077" t="s">
-        <v>2771</v>
+        <v>2410</v>
       </c>
       <c r="E1077" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1077" t="s">
-        <v>17</v>
+        <v>2411</v>
+      </c>
+      <c r="F1077">
+        <v>2018</v>
       </c>
       <c r="G1077" t="s">
-        <v>17</v>
+        <v>2412</v>
       </c>
       <c r="H1077">
         <v>3</v>
@@ -39963,25 +39963,25 @@
     </row>
     <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1078">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1078" t="s">
-        <v>2433</v>
+        <v>2358</v>
       </c>
       <c r="C1078" t="s">
-        <v>511</v>
+        <v>2423</v>
       </c>
       <c r="D1078" t="s">
-        <v>2442</v>
+        <v>2771</v>
       </c>
       <c r="E1078" t="s">
-        <v>513</v>
-      </c>
-      <c r="F1078">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>17</v>
       </c>
       <c r="G1078" t="s">
-        <v>514</v>
+        <v>17</v>
       </c>
       <c r="H1078">
         <v>3</v>
@@ -39998,19 +39998,19 @@
         <v>2433</v>
       </c>
       <c r="C1079" t="s">
-        <v>2109</v>
+        <v>511</v>
       </c>
       <c r="D1079" t="s">
-        <v>2110</v>
+        <v>2442</v>
       </c>
       <c r="E1079" t="s">
-        <v>2111</v>
+        <v>513</v>
       </c>
       <c r="F1079">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G1079" t="s">
-        <v>2112</v>
+        <v>514</v>
       </c>
       <c r="H1079">
         <v>3</v>
@@ -40027,19 +40027,19 @@
         <v>2433</v>
       </c>
       <c r="C1080" t="s">
-        <v>2473</v>
+        <v>2109</v>
       </c>
       <c r="D1080" t="s">
-        <v>2772</v>
+        <v>2110</v>
       </c>
       <c r="E1080" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1080" t="s">
-        <v>17</v>
+        <v>2111</v>
+      </c>
+      <c r="F1080">
+        <v>2018</v>
       </c>
       <c r="G1080" t="s">
-        <v>17</v>
+        <v>2112</v>
       </c>
       <c r="H1080">
         <v>3</v>
@@ -40056,19 +40056,19 @@
         <v>2433</v>
       </c>
       <c r="C1081" t="s">
-        <v>515</v>
+        <v>2473</v>
       </c>
       <c r="D1081" t="s">
-        <v>2448</v>
+        <v>2772</v>
       </c>
       <c r="E1081" t="s">
-        <v>2449</v>
-      </c>
-      <c r="F1081">
-        <v>2020</v>
+        <v>17</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>17</v>
       </c>
       <c r="G1081" t="s">
-        <v>518</v>
+        <v>17</v>
       </c>
       <c r="H1081">
         <v>3</v>
@@ -40085,19 +40085,19 @@
         <v>2433</v>
       </c>
       <c r="C1082" t="s">
-        <v>734</v>
+        <v>515</v>
       </c>
       <c r="D1082" t="s">
-        <v>2773</v>
+        <v>2448</v>
       </c>
       <c r="E1082" t="s">
-        <v>736</v>
+        <v>2449</v>
       </c>
       <c r="F1082">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1082" t="s">
-        <v>737</v>
+        <v>518</v>
       </c>
       <c r="H1082">
         <v>3</v>
@@ -40114,19 +40114,19 @@
         <v>2433</v>
       </c>
       <c r="C1083" t="s">
-        <v>2480</v>
+        <v>734</v>
       </c>
       <c r="D1083" t="s">
-        <v>2481</v>
+        <v>2773</v>
       </c>
       <c r="E1083" t="s">
-        <v>2482</v>
+        <v>736</v>
       </c>
       <c r="F1083">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G1083" t="s">
-        <v>17</v>
+        <v>737</v>
       </c>
       <c r="H1083">
         <v>3</v>
@@ -40143,16 +40143,16 @@
         <v>2433</v>
       </c>
       <c r="C1084" t="s">
-        <v>2475</v>
+        <v>2480</v>
       </c>
       <c r="D1084" t="s">
-        <v>2774</v>
+        <v>2481</v>
       </c>
       <c r="E1084" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1084" t="s">
-        <v>17</v>
+        <v>2482</v>
+      </c>
+      <c r="F1084">
+        <v>2022</v>
       </c>
       <c r="G1084" t="s">
         <v>17</v>
@@ -40172,19 +40172,19 @@
         <v>2433</v>
       </c>
       <c r="C1085" t="s">
-        <v>2463</v>
+        <v>2475</v>
       </c>
       <c r="D1085" t="s">
-        <v>2464</v>
+        <v>2774</v>
       </c>
       <c r="E1085" t="s">
-        <v>2465</v>
-      </c>
-      <c r="F1085">
-        <v>2018</v>
+        <v>17</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>17</v>
       </c>
       <c r="G1085" t="s">
-        <v>2466</v>
+        <v>17</v>
       </c>
       <c r="H1085">
         <v>3</v>
@@ -40204,16 +40204,16 @@
         <v>2463</v>
       </c>
       <c r="D1086" t="s">
-        <v>2775</v>
+        <v>2464</v>
       </c>
       <c r="E1086" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1086" t="s">
-        <v>17</v>
+        <v>2465</v>
+      </c>
+      <c r="F1086">
+        <v>2018</v>
       </c>
       <c r="G1086" t="s">
-        <v>17</v>
+        <v>2466</v>
       </c>
       <c r="H1086">
         <v>3</v>
@@ -40230,19 +40230,19 @@
         <v>2433</v>
       </c>
       <c r="C1087" t="s">
-        <v>1978</v>
+        <v>2463</v>
       </c>
       <c r="D1087" t="s">
-        <v>1994</v>
+        <v>2775</v>
       </c>
       <c r="E1087" t="s">
-        <v>1980</v>
-      </c>
-      <c r="F1087">
-        <v>2020</v>
+        <v>17</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>17</v>
       </c>
       <c r="G1087" t="s">
-        <v>1995</v>
+        <v>17</v>
       </c>
       <c r="H1087">
         <v>3</v>
@@ -40259,19 +40259,19 @@
         <v>2433</v>
       </c>
       <c r="C1088" t="s">
-        <v>2099</v>
+        <v>1978</v>
       </c>
       <c r="D1088" t="s">
-        <v>2450</v>
+        <v>1994</v>
       </c>
       <c r="E1088" t="s">
-        <v>2101</v>
+        <v>1980</v>
       </c>
       <c r="F1088">
         <v>2020</v>
       </c>
       <c r="G1088" t="s">
-        <v>2102</v>
+        <v>1995</v>
       </c>
       <c r="H1088">
         <v>3</v>
@@ -40288,19 +40288,19 @@
         <v>2433</v>
       </c>
       <c r="C1089" t="s">
-        <v>2455</v>
+        <v>2099</v>
       </c>
       <c r="D1089" t="s">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="E1089" t="s">
-        <v>2457</v>
+        <v>2101</v>
       </c>
       <c r="F1089">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1089" t="s">
-        <v>2458</v>
+        <v>2102</v>
       </c>
       <c r="H1089">
         <v>3</v>
@@ -40317,19 +40317,19 @@
         <v>2433</v>
       </c>
       <c r="C1090" t="s">
-        <v>2474</v>
+        <v>2455</v>
       </c>
       <c r="D1090" t="s">
-        <v>2776</v>
+        <v>2456</v>
       </c>
       <c r="E1090" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1090" t="s">
-        <v>17</v>
+        <v>2457</v>
+      </c>
+      <c r="F1090">
+        <v>2019</v>
       </c>
       <c r="G1090" t="s">
-        <v>17</v>
+        <v>2458</v>
       </c>
       <c r="H1090">
         <v>3</v>
@@ -40375,19 +40375,19 @@
         <v>2433</v>
       </c>
       <c r="C1092" t="s">
-        <v>2467</v>
+        <v>2474</v>
       </c>
       <c r="D1092" t="s">
-        <v>2468</v>
+        <v>2776</v>
       </c>
       <c r="E1092" t="s">
-        <v>2469</v>
-      </c>
-      <c r="F1092">
-        <v>2018</v>
+        <v>17</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>17</v>
       </c>
       <c r="G1092" t="s">
-        <v>2470</v>
+        <v>17</v>
       </c>
       <c r="H1092">
         <v>3</v>
@@ -40404,19 +40404,19 @@
         <v>2433</v>
       </c>
       <c r="C1093" t="s">
-        <v>1722</v>
+        <v>2467</v>
       </c>
       <c r="D1093" t="s">
-        <v>1723</v>
+        <v>2468</v>
       </c>
       <c r="E1093" t="s">
-        <v>1724</v>
+        <v>2469</v>
       </c>
       <c r="F1093">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="G1093" t="s">
-        <v>1725</v>
+        <v>2470</v>
       </c>
       <c r="H1093">
         <v>3</v>
@@ -40433,19 +40433,19 @@
         <v>2433</v>
       </c>
       <c r="C1094" t="s">
-        <v>2708</v>
+        <v>1722</v>
       </c>
       <c r="D1094" t="s">
-        <v>2709</v>
+        <v>1723</v>
       </c>
       <c r="E1094" t="s">
-        <v>2107</v>
+        <v>1724</v>
       </c>
       <c r="F1094">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="G1094" t="s">
-        <v>2108</v>
+        <v>1725</v>
       </c>
       <c r="H1094">
         <v>3</v>
@@ -40462,19 +40462,19 @@
         <v>2433</v>
       </c>
       <c r="C1095" t="s">
-        <v>572</v>
+        <v>2708</v>
       </c>
       <c r="D1095" t="s">
-        <v>573</v>
+        <v>2709</v>
       </c>
       <c r="E1095" t="s">
-        <v>574</v>
+        <v>2107</v>
       </c>
       <c r="F1095">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="G1095" t="s">
-        <v>575</v>
+        <v>2108</v>
       </c>
       <c r="H1095">
         <v>3</v>
@@ -40491,19 +40491,19 @@
         <v>2433</v>
       </c>
       <c r="C1096" t="s">
-        <v>1082</v>
+        <v>572</v>
       </c>
       <c r="D1096" t="s">
-        <v>2441</v>
+        <v>573</v>
       </c>
       <c r="E1096" t="s">
-        <v>1084</v>
+        <v>574</v>
       </c>
       <c r="F1096">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G1096" t="s">
-        <v>1085</v>
+        <v>575</v>
       </c>
       <c r="H1096">
         <v>3</v>
@@ -40520,10 +40520,10 @@
         <v>2433</v>
       </c>
       <c r="C1097" t="s">
-        <v>2438</v>
+        <v>1082</v>
       </c>
       <c r="D1097" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="E1097" t="s">
         <v>1084</v>
@@ -40532,7 +40532,7 @@
         <v>2022</v>
       </c>
       <c r="G1097" t="s">
-        <v>2440</v>
+        <v>1085</v>
       </c>
       <c r="H1097">
         <v>3</v>
@@ -40549,19 +40549,19 @@
         <v>2433</v>
       </c>
       <c r="C1098" t="s">
-        <v>2459</v>
+        <v>2438</v>
       </c>
       <c r="D1098" t="s">
-        <v>2460</v>
+        <v>2439</v>
       </c>
       <c r="E1098" t="s">
-        <v>2461</v>
+        <v>1084</v>
       </c>
       <c r="F1098">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G1098" t="s">
-        <v>2462</v>
+        <v>2440</v>
       </c>
       <c r="H1098">
         <v>3</v>
@@ -40578,19 +40578,19 @@
         <v>2433</v>
       </c>
       <c r="C1099" t="s">
-        <v>2434</v>
+        <v>2459</v>
       </c>
       <c r="D1099" t="s">
-        <v>2435</v>
+        <v>2460</v>
       </c>
       <c r="E1099" t="s">
-        <v>2436</v>
+        <v>2461</v>
       </c>
       <c r="F1099">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="G1099" t="s">
-        <v>2437</v>
+        <v>2462</v>
       </c>
       <c r="H1099">
         <v>3</v>
@@ -40607,19 +40607,19 @@
         <v>2433</v>
       </c>
       <c r="C1100" t="s">
-        <v>2477</v>
+        <v>2434</v>
       </c>
       <c r="D1100" t="s">
-        <v>2478</v>
+        <v>2435</v>
       </c>
       <c r="E1100" t="s">
-        <v>2479</v>
+        <v>2436</v>
       </c>
       <c r="F1100">
         <v>2022</v>
       </c>
       <c r="G1100" t="s">
-        <v>17</v>
+        <v>2437</v>
       </c>
       <c r="H1100">
         <v>3</v>
@@ -40636,16 +40636,16 @@
         <v>2433</v>
       </c>
       <c r="C1101" t="s">
-        <v>2471</v>
+        <v>2477</v>
       </c>
       <c r="D1101" t="s">
-        <v>2777</v>
+        <v>2478</v>
       </c>
       <c r="E1101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1101" t="s">
-        <v>17</v>
+        <v>2479</v>
+      </c>
+      <c r="F1101">
+        <v>2022</v>
       </c>
       <c r="G1101" t="s">
         <v>17</v>
@@ -40665,19 +40665,19 @@
         <v>2433</v>
       </c>
       <c r="C1102" t="s">
-        <v>2113</v>
+        <v>2471</v>
       </c>
       <c r="D1102" t="s">
-        <v>2114</v>
+        <v>2777</v>
       </c>
       <c r="E1102" t="s">
-        <v>2115</v>
-      </c>
-      <c r="F1102">
-        <v>2018</v>
+        <v>17</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>17</v>
       </c>
       <c r="G1102" t="s">
-        <v>2116</v>
+        <v>17</v>
       </c>
       <c r="H1102">
         <v>3</v>
@@ -40694,19 +40694,19 @@
         <v>2433</v>
       </c>
       <c r="C1103" t="s">
-        <v>2476</v>
+        <v>2113</v>
       </c>
       <c r="D1103" t="s">
-        <v>2778</v>
+        <v>2114</v>
       </c>
       <c r="E1103" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1103" t="s">
-        <v>17</v>
+        <v>2115</v>
+      </c>
+      <c r="F1103">
+        <v>2018</v>
       </c>
       <c r="G1103" t="s">
-        <v>17</v>
+        <v>2116</v>
       </c>
       <c r="H1103">
         <v>3</v>
@@ -40723,19 +40723,19 @@
         <v>2433</v>
       </c>
       <c r="C1104" t="s">
-        <v>704</v>
+        <v>2476</v>
       </c>
       <c r="D1104" t="s">
-        <v>2507</v>
+        <v>2778</v>
       </c>
       <c r="E1104" t="s">
-        <v>705</v>
-      </c>
-      <c r="F1104">
-        <v>2019</v>
+        <v>17</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>17</v>
       </c>
       <c r="G1104" t="s">
-        <v>706</v>
+        <v>17</v>
       </c>
       <c r="H1104">
         <v>3</v>
@@ -40755,16 +40755,16 @@
         <v>704</v>
       </c>
       <c r="D1105" t="s">
-        <v>2779</v>
+        <v>2507</v>
       </c>
       <c r="E1105" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1105" t="s">
-        <v>17</v>
+        <v>705</v>
+      </c>
+      <c r="F1105">
+        <v>2019</v>
       </c>
       <c r="G1105" t="s">
-        <v>17</v>
+        <v>706</v>
       </c>
       <c r="H1105">
         <v>3</v>
@@ -40781,19 +40781,19 @@
         <v>2433</v>
       </c>
       <c r="C1106" t="s">
-        <v>2508</v>
+        <v>704</v>
       </c>
       <c r="D1106" t="s">
-        <v>635</v>
+        <v>2779</v>
       </c>
       <c r="E1106" t="s">
-        <v>636</v>
-      </c>
-      <c r="F1106">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>17</v>
       </c>
       <c r="G1106" t="s">
-        <v>637</v>
+        <v>17</v>
       </c>
       <c r="H1106">
         <v>3</v>
@@ -40810,19 +40810,19 @@
         <v>2433</v>
       </c>
       <c r="C1107" t="s">
-        <v>2451</v>
+        <v>2508</v>
       </c>
       <c r="D1107" t="s">
-        <v>2452</v>
+        <v>635</v>
       </c>
       <c r="E1107" t="s">
-        <v>2453</v>
+        <v>636</v>
       </c>
       <c r="F1107">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G1107" t="s">
-        <v>2454</v>
+        <v>637</v>
       </c>
       <c r="H1107">
         <v>3</v>
@@ -40839,19 +40839,19 @@
         <v>2433</v>
       </c>
       <c r="C1108" t="s">
-        <v>2472</v>
+        <v>2451</v>
       </c>
       <c r="D1108" t="s">
-        <v>2780</v>
+        <v>2452</v>
       </c>
       <c r="E1108" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1108" t="s">
-        <v>17</v>
+        <v>2453</v>
+      </c>
+      <c r="F1108">
+        <v>2020</v>
       </c>
       <c r="G1108" t="s">
-        <v>17</v>
+        <v>2454</v>
       </c>
       <c r="H1108">
         <v>3</v>
@@ -40868,19 +40868,19 @@
         <v>2433</v>
       </c>
       <c r="C1109" t="s">
-        <v>1079</v>
+        <v>2472</v>
       </c>
       <c r="D1109" t="s">
-        <v>2534</v>
+        <v>2780</v>
       </c>
       <c r="E1109" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F1109">
-        <v>2022</v>
+        <v>17</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>17</v>
       </c>
       <c r="G1109" t="s">
-        <v>1081</v>
+        <v>17</v>
       </c>
       <c r="H1109">
         <v>3</v>
@@ -40897,19 +40897,19 @@
         <v>2433</v>
       </c>
       <c r="C1110" t="s">
-        <v>1966</v>
+        <v>1079</v>
       </c>
       <c r="D1110" t="s">
-        <v>2262</v>
+        <v>2534</v>
       </c>
       <c r="E1110" t="s">
-        <v>1968</v>
+        <v>1080</v>
       </c>
       <c r="F1110">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G1110" t="s">
-        <v>1969</v>
+        <v>1081</v>
       </c>
       <c r="H1110">
         <v>3</v>
@@ -40926,19 +40926,19 @@
         <v>2433</v>
       </c>
       <c r="C1111" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="D1111" t="s">
-        <v>2447</v>
+        <v>2262</v>
       </c>
       <c r="E1111" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="F1111">
         <v>2021</v>
       </c>
       <c r="G1111" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="H1111">
         <v>3</v>
@@ -40955,24 +40955,53 @@
         <v>2433</v>
       </c>
       <c r="C1112" t="s">
-        <v>2443</v>
+        <v>1974</v>
       </c>
       <c r="D1112" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="E1112" t="s">
-        <v>2445</v>
+        <v>1976</v>
       </c>
       <c r="F1112">
         <v>2021</v>
       </c>
       <c r="G1112" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H1112">
+        <v>3</v>
+      </c>
+      <c r="I1112">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>29</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F1113">
+        <v>2021</v>
+      </c>
+      <c r="G1113" t="s">
         <v>2446</v>
       </c>
-      <c r="H1112">
-        <v>3</v>
-      </c>
-      <c r="I1112">
+      <c r="H1113">
+        <v>3</v>
+      </c>
+      <c r="I1113">
         <v>0.6</v>
       </c>
     </row>
